--- a/data/99. analyzes/excel/pharmas/pharmas_overview.xlsx
+++ b/data/99. analyzes/excel/pharmas/pharmas_overview.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26920"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="overview" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>pharma</t>
   </si>
@@ -30,7 +26,7 @@
     <t>Novartis</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Bayer AG</t>
@@ -207,24 +203,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -239,37 +234,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -557,35 +541,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -593,79 +578,79 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>25767442.969999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>23071718.859999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>19899444.170000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>22419196.359999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>91157802.359999999</v>
+      <c r="B2" t="n">
+        <v>25767442.97</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23071718.86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19899444.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22419196.36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91157802.36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="n">
         <v>13178311</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="n">
         <v>13786630</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="n">
         <v>13870677.66</v>
       </c>
-      <c r="E3" s="1">
-        <v>19885074.690000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>60720693.349999987</v>
+      <c r="E3" t="n">
+        <v>19885074.69</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60720693.34999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="n">
         <v>9099652.870000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="n">
         <v>8999488.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="n">
         <v>11996817.51</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" t="n">
         <v>13332487.01</v>
       </c>
-      <c r="F4" s="1">
-        <v>43428445.890000001</v>
+      <c r="F4" t="n">
+        <v>43428445.89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="n">
         <v>6565529</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="n">
         <v>11271954</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" t="n">
         <v>10025838</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" t="n">
         <v>12623917</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="n">
         <v>40487238</v>
       </c>
     </row>
@@ -673,19 +658,19 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="n">
         <v>6305161</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="n">
         <v>8139962</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" t="n">
         <v>10054220</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" t="n">
         <v>13662878</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" t="n">
         <v>38162221</v>
       </c>
     </row>
@@ -693,59 +678,59 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>8522571.4100000001</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" t="n">
+        <v>8522571.41</v>
+      </c>
+      <c r="C7" t="n">
         <v>7592162</v>
       </c>
-      <c r="D7" s="1">
-        <v>9790025.5600000005</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6674523.9199999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>32579282.890000001</v>
+      <c r="D7" t="n">
+        <v>9790025.560000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6674523.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32579282.89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>4874239.0599999987</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" t="n">
+        <v>4874239.059999999</v>
+      </c>
+      <c r="C8" t="n">
         <v>6513677.5</v>
       </c>
-      <c r="D8" s="1">
-        <v>9074014.0999999996</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10629051.710000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>31090982.370000001</v>
+      <c r="D8" t="n">
+        <v>9074014.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10629051.71</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31090982.37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="n">
         <v>5855125</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="n">
         <v>7936711</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" t="n">
         <v>7803013</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" t="n">
         <v>6792351</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" t="n">
         <v>28387200</v>
       </c>
     </row>
@@ -753,39 +738,39 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>8449595.1399999969</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5424980.7300000004</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7089278.6000000024</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5452578.3999999994</v>
-      </c>
-      <c r="F10" s="1">
-        <v>26416432.870000001</v>
+      <c r="B10" t="n">
+        <v>8449595.139999997</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5424980.73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7089278.600000002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5452578.399999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26416432.87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>3915762.6599999992</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5440683.9300000006</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5555347.8699999992</v>
-      </c>
-      <c r="E11" s="1">
-        <v>11047294.359999999</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="B11" t="n">
+        <v>3915762.659999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5440683.930000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5555347.869999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11047294.36</v>
+      </c>
+      <c r="F11" t="n">
         <v>25959088.82</v>
       </c>
     </row>
@@ -793,19 +778,19 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="n">
         <v>5907363</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="n">
         <v>4067262</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" t="n">
         <v>4628277</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" t="n">
         <v>4063646</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="n">
         <v>18666548</v>
       </c>
     </row>
@@ -813,39 +798,39 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="n">
         <v>1683322.08</v>
       </c>
-      <c r="C13" s="1">
-        <v>4119293.2300000009</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6505476.6700000018</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5215788.7999999989</v>
-      </c>
-      <c r="F13" s="1">
-        <v>17523880.780000001</v>
+      <c r="C13" t="n">
+        <v>4119293.230000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6505476.670000002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5215788.799999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17523880.78</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>2761543.1399999992</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" t="n">
+        <v>2761543.139999999</v>
+      </c>
+      <c r="C14" t="n">
         <v>6389571.21</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" t="n">
         <v>3778016.7</v>
       </c>
-      <c r="E14" s="1">
-        <v>3824427.4699999988</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" t="n">
+        <v>3824427.469999999</v>
+      </c>
+      <c r="F14" t="n">
         <v>16753558.52</v>
       </c>
     </row>
@@ -853,19 +838,19 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>2401381.9900000002</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" t="n">
+        <v>2401381.99</v>
+      </c>
+      <c r="C15" t="n">
         <v>3333060</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" t="n">
         <v>2990056.26</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" t="n">
         <v>3428461.48</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="n">
         <v>12152959.73</v>
       </c>
     </row>
@@ -873,19 +858,19 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="n">
         <v>2919924.25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="n">
         <v>3555224.65</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" t="n">
         <v>2384270</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" t="n">
         <v>3033279</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" t="n">
         <v>11892697.9</v>
       </c>
     </row>
@@ -893,19 +878,19 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="n">
         <v>1687718</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="n">
         <v>3181628</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" t="n">
         <v>2583814</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" t="n">
         <v>3422990</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="n">
         <v>10876150</v>
       </c>
     </row>
@@ -913,79 +898,79 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="n">
         <v>1720175.24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" t="n">
         <v>2023757.41</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" t="n">
         <v>2634059.59</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" t="n">
         <v>3374878.580000001</v>
       </c>
-      <c r="F18" s="1">
-        <v>9752870.8200000003</v>
+      <c r="F18" t="n">
+        <v>9752870.82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" t="n">
         <v>2559699.27</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" t="n">
         <v>1587584.16</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" t="n">
         <v>2441668.88</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" t="n">
         <v>2975325.18</v>
       </c>
-      <c r="F19" s="1">
-        <v>9564277.4900000002</v>
+      <c r="F19" t="n">
+        <v>9564277.49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" t="n">
         <v>1789770</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" t="n">
         <v>2037874.1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" t="n">
         <v>2396801.6</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" t="n">
         <v>3085833</v>
       </c>
-      <c r="F20" s="1">
-        <v>9310278.6999999993</v>
+      <c r="F20" t="n">
+        <v>9310278.699999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="n">
         <v>2292384</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" t="n">
         <v>2487036</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" t="n">
         <v>1486599</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" t="n">
         <v>1789228</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" t="n">
         <v>8055247</v>
       </c>
     </row>
@@ -993,179 +978,179 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" t="n">
         <v>1672861.15</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="n">
         <v>1523284.19</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" t="n">
         <v>2106045</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" t="n">
         <v>2706954.84</v>
       </c>
-      <c r="F22" s="1">
-        <v>8009145.1799999997</v>
+      <c r="F22" t="n">
+        <v>8009145.18</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" t="n">
         <v>1482565</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" t="n">
         <v>1304113.23</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" t="n">
         <v>2327130.27</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" t="n">
         <v>2467120.98</v>
       </c>
-      <c r="F23" s="1">
-        <v>7580929.4800000004</v>
+      <c r="F23" t="n">
+        <v>7580929.48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" t="n">
         <v>1518904</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" t="n">
         <v>1810574.7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" t="n">
         <v>1695160.96</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" t="n">
         <v>2256076</v>
       </c>
-      <c r="F24" s="1">
-        <v>7280715.6600000001</v>
+      <c r="F24" t="n">
+        <v>7280715.66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" t="n">
         <v>3115771.790000001</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" t="n">
         <v>1535391.52</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" t="n">
         <v>1181605.22</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" t="n">
         <v>1344453.31</v>
       </c>
-      <c r="F25" s="1">
-        <v>7177221.8399999999</v>
+      <c r="F25" t="n">
+        <v>7177221.84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" t="n">
         <v>1754746.98</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" t="n">
         <v>1578787.2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" t="n">
         <v>1741942.53</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" t="n">
         <v>1843053.49</v>
       </c>
-      <c r="F26" s="1">
-        <v>6918530.1999999993</v>
+      <c r="F26" t="n">
+        <v>6918530.199999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" t="n">
         <v>1017829.7</v>
       </c>
-      <c r="C27" s="1">
-        <v>2515520.2999999998</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" t="n">
+        <v>2515520.3</v>
+      </c>
+      <c r="D27" t="n">
         <v>1347525.09</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" t="n">
         <v>1572738.78</v>
       </c>
-      <c r="F27" s="1">
-        <v>6453613.8700000001</v>
+      <c r="F27" t="n">
+        <v>6453613.87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" t="n">
         <v>997648</v>
       </c>
-      <c r="C28" s="1">
-        <v>702001.00300000003</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" t="n">
+        <v>702001.003</v>
+      </c>
+      <c r="D28" t="n">
         <v>1660994</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" t="n">
         <v>891113.35</v>
       </c>
-      <c r="F28" s="1">
-        <v>4251756.3530000001</v>
+      <c r="F28" t="n">
+        <v>4251756.353</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <v>1041054.8149999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1102790.1599999999</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" t="n">
+        <v>1041054.815</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1102790.16</v>
+      </c>
+      <c r="D29" t="n">
         <v>1106462.03</v>
       </c>
-      <c r="E29" s="1">
-        <v>998726.69</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4249033.6950000003</v>
+      <c r="E29" t="n">
+        <v>998726.6899999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4249033.695</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <v>1050121.1499999999</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" t="n">
+        <v>1050121.15</v>
+      </c>
+      <c r="C30" t="n">
         <v>872621.7</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" t="n">
         <v>961676</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" t="n">
         <v>766394</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" t="n">
         <v>3650812.85</v>
       </c>
     </row>
@@ -1173,19 +1158,19 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>670458.52000000014</v>
-      </c>
-      <c r="C31" s="1">
-        <v>928358.66999999969</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" t="n">
+        <v>670458.5200000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>928358.6699999997</v>
+      </c>
+      <c r="D31" t="n">
         <v>917537.1</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" t="n">
         <v>1027117.19</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" t="n">
         <v>3543471.48</v>
       </c>
     </row>
@@ -1193,19 +1178,19 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" t="n">
         <v>814863</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" t="n">
         <v>870316</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" t="n">
         <v>736522</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" t="n">
         <v>815495</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" t="n">
         <v>3237196</v>
       </c>
     </row>
@@ -1213,19 +1198,19 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" t="n">
         <v>311966</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" t="n">
         <v>1229070</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" t="n">
         <v>1491764</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" t="n">
         <v>109733</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" t="n">
         <v>3142533</v>
       </c>
     </row>
@@ -1233,39 +1218,39 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="n">
         <v>584765</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" t="n">
         <v>706033.7</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" t="n">
         <v>554467.25</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" t="n">
         <v>631703</v>
       </c>
-      <c r="F34" s="1">
-        <v>2476968.9500000002</v>
+      <c r="F34" t="n">
+        <v>2476968.95</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" t="n">
         <v>445123</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" t="n">
         <v>1187518</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" t="n">
         <v>496118</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" t="n">
         <v>246495</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" t="n">
         <v>2375254</v>
       </c>
     </row>
@@ -1273,19 +1258,19 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" t="n">
         <v>413841</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" t="n">
         <v>709352</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" t="n">
         <v>612103</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" t="n">
         <v>311463.86</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" t="n">
         <v>2046759.86</v>
       </c>
     </row>
@@ -1293,19 +1278,19 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <v>627270.28999999992</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" t="n">
+        <v>627270.2899999999</v>
+      </c>
+      <c r="C37" t="n">
         <v>340816.53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" t="n">
         <v>274529.13</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" t="n">
         <v>712339.34</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" t="n">
         <v>1954955.29</v>
       </c>
     </row>
@@ -1313,16 +1298,17 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
-        <v>274898.28000000003</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" t="s"/>
+      <c r="C38" t="n">
+        <v>274898.28</v>
+      </c>
+      <c r="D38" t="n">
         <v>1000084.58</v>
       </c>
-      <c r="E38" s="1">
-        <v>640425.56000000006</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" t="n">
+        <v>640425.5600000001</v>
+      </c>
+      <c r="F38" t="n">
         <v>1915408.42</v>
       </c>
     </row>
@@ -1330,19 +1316,19 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <v>477926.12000000011</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" t="n">
+        <v>477926.1200000001</v>
+      </c>
+      <c r="C39" t="n">
         <v>315949</v>
       </c>
-      <c r="D39" s="1">
-        <v>566434.78999999992</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" t="n">
+        <v>566434.7899999999</v>
+      </c>
+      <c r="E39" t="n">
         <v>530761.09</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" t="n">
         <v>1891071</v>
       </c>
     </row>
@@ -1350,19 +1336,19 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" t="n">
         <v>498453.38</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="n">
         <v>177627.5</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" t="n">
         <v>303055.98</v>
       </c>
-      <c r="E40" s="1">
-        <v>832405.00999999989</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" t="n">
+        <v>832405.0099999999</v>
+      </c>
+      <c r="F40" t="n">
         <v>1811541.87</v>
       </c>
     </row>
@@ -1370,19 +1356,19 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" t="n">
         <v>685408</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" t="n">
         <v>388827</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" t="n">
         <v>375301</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" t="n">
         <v>297309</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" t="n">
         <v>1746845</v>
       </c>
     </row>
@@ -1390,19 +1376,19 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" t="n">
         <v>282408</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" t="n">
         <v>392806</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" t="n">
         <v>272922.2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" t="n">
         <v>472928.5</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" t="n">
         <v>1421064.7</v>
       </c>
     </row>
@@ -1410,19 +1396,19 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" t="n">
         <v>216494.16</v>
       </c>
-      <c r="C43" s="1">
-        <v>316110.37000000011</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" t="n">
+        <v>316110.3700000001</v>
+      </c>
+      <c r="D43" t="n">
         <v>513644.17</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" t="n">
         <v>360504.47</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" t="n">
         <v>1406753.17</v>
       </c>
     </row>
@@ -1430,19 +1416,19 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <v>662635.69000000006</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" t="n">
+        <v>662635.6900000001</v>
+      </c>
+      <c r="C44" t="n">
         <v>319074.02</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" t="n">
         <v>237115.8</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" t="n">
         <v>177917.28</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" t="n">
         <v>1396742.79</v>
       </c>
     </row>
@@ -1450,19 +1436,19 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" t="n">
         <v>149826.9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" t="n">
         <v>257852.06</v>
       </c>
-      <c r="D45" s="1">
-        <v>502254.41000000009</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" t="n">
+        <v>502254.4100000001</v>
+      </c>
+      <c r="E45" t="n">
         <v>460523.34</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" t="n">
         <v>1370456.71</v>
       </c>
     </row>
@@ -1470,19 +1456,19 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" t="n">
         <v>267101</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" t="n">
         <v>335096</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" t="n">
         <v>331586.8</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" t="n">
         <v>367555</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" t="n">
         <v>1301338.8</v>
       </c>
     </row>
@@ -1490,19 +1476,19 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" t="n">
         <v>188893</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" t="n">
         <v>249197.2</v>
       </c>
-      <c r="D47" s="1">
-        <v>415538.21999999991</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" t="n">
+        <v>415538.2199999999</v>
+      </c>
+      <c r="E47" t="n">
         <v>300341.0500000001</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" t="n">
         <v>1153969.47</v>
       </c>
     </row>
@@ -1510,19 +1496,19 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" t="n">
         <v>353089.77</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" t="n">
         <v>268995.75</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" t="n">
         <v>221320.74</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" t="n">
         <v>212261.74</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" t="n">
         <v>1055668</v>
       </c>
     </row>
@@ -1530,39 +1516,39 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" t="n">
         <v>214004.9</v>
       </c>
-      <c r="C49" s="1">
-        <v>384865.76000000013</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" t="n">
+        <v>384865.7600000001</v>
+      </c>
+      <c r="D49" t="n">
         <v>194239.08</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" t="n">
         <v>205785.7</v>
       </c>
-      <c r="F49" s="1">
-        <v>998895.44</v>
+      <c r="F49" t="n">
+        <v>998895.4399999999</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" t="n">
         <v>235986.91</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" t="n">
         <v>314193.27</v>
       </c>
-      <c r="D50" s="1">
-        <v>259392.06999999989</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" t="n">
+        <v>259392.0699999999</v>
+      </c>
+      <c r="E50" t="n">
         <v>177810.8</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" t="n">
         <v>987383.05</v>
       </c>
     </row>
@@ -1570,19 +1556,19 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" t="n">
         <v>85777.11</v>
       </c>
-      <c r="C51" s="1">
-        <v>559406.79999999993</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" t="n">
+        <v>559406.7999999999</v>
+      </c>
+      <c r="D51" t="n">
         <v>257628.3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" t="n">
         <v>60115.66</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" t="n">
         <v>962927.87</v>
       </c>
     </row>
@@ -1590,33 +1576,35 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
-        <v>141177.04999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>753608.59000000008</v>
-      </c>
-      <c r="F52" s="1">
-        <v>894785.64000000013</v>
+      <c r="B52" t="n">
+        <v>141177.05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>753608.5900000001</v>
+      </c>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
+      <c r="F52" t="n">
+        <v>894785.6400000001</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" t="n">
         <v>150318.75</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" t="n">
         <v>258844</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" t="n">
         <v>240233.26</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" t="n">
         <v>200154.54</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" t="n">
         <v>849550.55</v>
       </c>
     </row>
@@ -1624,13 +1612,15 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="1">
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
         <v>224177.89</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" t="n">
         <v>407706</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" t="n">
         <v>631883.89</v>
       </c>
     </row>
@@ -1638,19 +1628,19 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" t="n">
         <v>120375</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" t="n">
         <v>120375</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" t="n">
         <v>113702</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" t="n">
         <v>118630.3</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" t="n">
         <v>473082.3</v>
       </c>
     </row>
@@ -1658,13 +1648,15 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="1">
-        <v>87274.07</v>
-      </c>
-      <c r="E56" s="1">
-        <v>90571.659999999989</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>87274.07000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>90571.65999999999</v>
+      </c>
+      <c r="F56" t="n">
         <v>177845.73</v>
       </c>
     </row>
@@ -1672,10 +1664,13 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="1">
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="s"/>
+      <c r="E57" t="n">
         <v>63843.88</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" t="n">
         <v>63843.88</v>
       </c>
     </row>
@@ -1683,19 +1678,19 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" t="n">
         <v>7800</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" t="n">
         <v>10000</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" t="n">
         <v>12700</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" t="n">
         <v>19100</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" t="n">
         <v>49600</v>
       </c>
     </row>
@@ -1703,13 +1698,15 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="1">
+      <c r="B59" t="s"/>
+      <c r="C59" t="n">
         <v>9523</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" t="n">
         <v>7500</v>
       </c>
-      <c r="F59" s="1">
+      <c r="E59" t="s"/>
+      <c r="F59" t="n">
         <v>17023</v>
       </c>
     </row>
@@ -1717,19 +1714,17 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="1">
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="s"/>
+      <c r="E60" t="n">
         <v>1500</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" t="n">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/99. analyzes/excel/pharmas/pharmas_overview.xlsx
+++ b/data/99. analyzes/excel/pharmas/pharmas_overview.xlsx
@@ -152,10 +152,10 @@
     <t>Grünenthal Pharma AG</t>
   </si>
   <si>
+    <t>Baxter AG</t>
+  </si>
+  <si>
     <t>Galderma</t>
-  </si>
-  <si>
-    <t>Baxter AG</t>
   </si>
   <si>
     <t>Mylan Pharma GmbH (BGP Products)</t>
@@ -778,7 +778,7 @@
         <v>5440683.930000001</v>
       </c>
       <c r="D10" t="n">
-        <v>5555347.869999999</v>
+        <v>5555347.869999998</v>
       </c>
       <c r="E10" t="n">
         <v>11047294.36</v>
@@ -787,7 +787,7 @@
         <v>8418786.1</v>
       </c>
       <c r="G10" t="n">
-        <v>34377874.92</v>
+        <v>34377874.91999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -795,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>8449595.139999997</v>
+        <v>8449595.139999999</v>
       </c>
       <c r="C11" t="n">
         <v>5424980.73</v>
       </c>
       <c r="D11" t="n">
-        <v>7089278.600000002</v>
+        <v>7089278.600000001</v>
       </c>
       <c r="E11" t="n">
-        <v>5452578.399999999</v>
+        <v>5452578.4</v>
       </c>
       <c r="F11" t="n">
-        <v>3450576.339999999</v>
+        <v>3450576.34</v>
       </c>
       <c r="G11" t="n">
         <v>29867009.21</v>
@@ -844,10 +844,10 @@
         <v>1683322.08</v>
       </c>
       <c r="C13" t="n">
-        <v>4119293.230000001</v>
+        <v>4119293.23</v>
       </c>
       <c r="D13" t="n">
-        <v>6505476.670000002</v>
+        <v>6505476.67</v>
       </c>
       <c r="E13" t="n">
         <v>5215788.799999999</v>
@@ -942,7 +942,7 @@
         <v>2634059.59</v>
       </c>
       <c r="E17" t="n">
-        <v>3374878.580000001</v>
+        <v>3374878.58</v>
       </c>
       <c r="F17" t="n">
         <v>3667493.650000002</v>
@@ -988,7 +988,7 @@
         <v>2441668.88</v>
       </c>
       <c r="E19" t="n">
-        <v>2975325.18</v>
+        <v>2975325.179999999</v>
       </c>
       <c r="F19" t="n">
         <v>3119493.91</v>
@@ -1104,10 +1104,10 @@
         <v>1843053.49</v>
       </c>
       <c r="F24" t="n">
-        <v>2881624.260000001</v>
+        <v>2881624.26</v>
       </c>
       <c r="G24" t="n">
-        <v>9800154.460000001</v>
+        <v>9800154.459999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1253,10 +1253,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>670458.5200000001</v>
+        <v>670458.52</v>
       </c>
       <c r="C31" t="n">
-        <v>928358.6699999997</v>
+        <v>928358.6699999999</v>
       </c>
       <c r="D31" t="n">
         <v>917537.1</v>
@@ -1265,7 +1265,7 @@
         <v>1027117.19</v>
       </c>
       <c r="F31" t="n">
-        <v>737844.5899999999</v>
+        <v>737844.59</v>
       </c>
       <c r="G31" t="n">
         <v>4281316.07</v>
@@ -1349,7 +1349,7 @@
         <v>315949</v>
       </c>
       <c r="D35" t="n">
-        <v>566434.7899999999</v>
+        <v>566434.79</v>
       </c>
       <c r="E35" t="n">
         <v>530761.09</v>
@@ -1376,7 +1376,7 @@
         <v>640425.5600000001</v>
       </c>
       <c r="F36" t="n">
-        <v>500207.62</v>
+        <v>500207.6200000001</v>
       </c>
       <c r="G36" t="n">
         <v>2415616.04</v>
@@ -1460,7 +1460,7 @@
         <v>257852.06</v>
       </c>
       <c r="D40" t="n">
-        <v>502254.4100000001</v>
+        <v>502254.41</v>
       </c>
       <c r="E40" t="n">
         <v>460523.34</v>
@@ -1506,10 +1506,10 @@
         <v>177627.5</v>
       </c>
       <c r="D42" t="n">
-        <v>303055.98</v>
+        <v>303055.9799999999</v>
       </c>
       <c r="E42" t="n">
-        <v>832405.0099999999</v>
+        <v>832405.01</v>
       </c>
       <c r="F42" t="s"/>
       <c r="G42" t="n">
@@ -1550,7 +1550,7 @@
         <v>316110.3700000001</v>
       </c>
       <c r="D44" t="n">
-        <v>513644.17</v>
+        <v>513644.1700000001</v>
       </c>
       <c r="E44" t="n">
         <v>360504.47</v>
@@ -1567,22 +1567,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>188893</v>
+        <v>662635.6900000001</v>
       </c>
       <c r="C45" t="n">
-        <v>249197.2</v>
+        <v>319074.02</v>
       </c>
       <c r="D45" t="n">
-        <v>415538.2199999999</v>
+        <v>237115.8</v>
       </c>
       <c r="E45" t="n">
-        <v>300341.0500000001</v>
+        <v>177917.28</v>
       </c>
       <c r="F45" t="n">
-        <v>580861.5700000001</v>
+        <v>257152.55</v>
       </c>
       <c r="G45" t="n">
-        <v>1734831.04</v>
+        <v>1653895.34</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1590,22 +1590,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>662635.6900000001</v>
+        <v>188893</v>
       </c>
       <c r="C46" t="n">
-        <v>319074.02</v>
+        <v>249197.2</v>
       </c>
       <c r="D46" t="n">
-        <v>237115.8</v>
+        <v>415538.22</v>
       </c>
       <c r="E46" t="n">
-        <v>177917.28</v>
+        <v>300341.05</v>
       </c>
       <c r="F46" t="n">
-        <v>257152.55</v>
+        <v>431178.52</v>
       </c>
       <c r="G46" t="n">
-        <v>1653895.34</v>
+        <v>1585147.99</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1685,7 +1685,7 @@
         <v>214004.9</v>
       </c>
       <c r="C50" t="n">
-        <v>384865.7600000001</v>
+        <v>384865.76</v>
       </c>
       <c r="D50" t="n">
         <v>194239.08</v>
@@ -1731,7 +1731,7 @@
         <v>85777.11</v>
       </c>
       <c r="C52" t="n">
-        <v>559406.7999999999</v>
+        <v>559406.8</v>
       </c>
       <c r="D52" t="n">
         <v>257628.3</v>
